--- a/TC Form Generator/studentList.xlsx
+++ b/TC Form Generator/studentList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B8AD8C-24C5-4B8E-AE7C-5AF1E83716F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,107 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>s_name</t>
+  </si>
+  <si>
+    <t>f_name</t>
+  </si>
+  <si>
+    <t>m_name</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>local_address</t>
+  </si>
+  <si>
+    <t>sub1</t>
+  </si>
+  <si>
+    <t>sub2</t>
+  </si>
+  <si>
+    <t>sub3</t>
+  </si>
+  <si>
+    <t>sub4</t>
+  </si>
+  <si>
+    <t>sub5</t>
+  </si>
+  <si>
+    <t>sub6</t>
+  </si>
+  <si>
+    <t>sub7</t>
+  </si>
+  <si>
+    <t>sub8</t>
+  </si>
+  <si>
+    <t>admin_no</t>
+  </si>
+  <si>
+    <t>KENDRIYA VIDHYALAYA NO - 1 HARNI ROAD VADODARA</t>
+  </si>
+  <si>
+    <t>bob</t>
+  </si>
+  <si>
+    <t>baba</t>
+  </si>
+  <si>
+    <t>samy</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>sub9</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>abc stark tower, New york</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +127,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,13 +226,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +270,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50C66F14-7CCC-4F74-9B1C-301A2FA8C068}" name="Table1" displayName="Table1" ref="A2:Q80" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A2:Q80" xr:uid="{1E0D1C9A-8CBB-4D86-8F04-AE6586851A06}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{D1D4B446-BE07-4A5D-BE3E-E60560EF486C}" name="admin_no"/>
+    <tableColumn id="2" xr3:uid="{DA86C964-FD4F-4CA6-9F77-89191DBA8FF0}" name="s_name"/>
+    <tableColumn id="3" xr3:uid="{2F576F11-A50A-4466-A1A2-2B211FD8A1D0}" name="f_name"/>
+    <tableColumn id="4" xr3:uid="{3AC72DE0-074D-4705-92B0-BA660FB200E6}" name="m_name"/>
+    <tableColumn id="5" xr3:uid="{F3499DD6-87C7-42D2-9BA0-862AB20B1735}" name="class"/>
+    <tableColumn id="6" xr3:uid="{AA15FF11-FC9E-49DF-A980-DCB1A76536DC}" name="section"/>
+    <tableColumn id="7" xr3:uid="{7F7D4D56-D737-4EA3-B841-1D65D9D78683}" name="session"/>
+    <tableColumn id="8" xr3:uid="{21215ABA-04B3-4ABA-B510-F5E6386A0312}" name="local_address"/>
+    <tableColumn id="9" xr3:uid="{63D5A57A-3432-4A32-AAF6-AF8B59A5471A}" name="sub1"/>
+    <tableColumn id="10" xr3:uid="{FEB22E1A-0CDB-4AC1-B6A4-2F31F180177C}" name="sub2"/>
+    <tableColumn id="11" xr3:uid="{9D8733A8-F284-410E-B407-C7FF21067E6A}" name="sub3"/>
+    <tableColumn id="12" xr3:uid="{8BEBD009-99D1-47DE-8B3F-32272C1FCC12}" name="sub4"/>
+    <tableColumn id="13" xr3:uid="{AF611D6C-9632-406E-9522-F2194D347E63}" name="sub5"/>
+    <tableColumn id="14" xr3:uid="{CCB62F01-71B7-46AA-B212-CCE00FA07E26}" name="sub6"/>
+    <tableColumn id="15" xr3:uid="{735AF4E0-728F-4244-AD5F-79E452E51A35}" name="sub7"/>
+    <tableColumn id="16" xr3:uid="{E7FCE5E1-73A3-4FB0-90DD-7033860E2E7E}" name="sub8"/>
+    <tableColumn id="17" xr3:uid="{D49E0F8D-2D34-49EE-8446-D0C3767C9E15}" name="sub9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +577,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="65.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F80" xr:uid="{D0012373-77A8-468E-8364-E4991C9C9A18}">
+      <formula1>$Q$3:$Q$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/TC Form Generator/studentList.xlsx
+++ b/TC Form Generator/studentList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B8AD8C-24C5-4B8E-AE7C-5AF1E83716F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F74AB1-C9FB-43D9-A60E-1027A0911890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,6 +228,8 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,13 +239,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -251,13 +258,6 @@
           <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50C66F14-7CCC-4F74-9B1C-301A2FA8C068}" name="Table1" displayName="Table1" ref="A2:Q80" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50C66F14-7CCC-4F74-9B1C-301A2FA8C068}" name="Table1" displayName="Table1" ref="A2:Q80" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A2:Q80" xr:uid="{1E0D1C9A-8CBB-4D86-8F04-AE6586851A06}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,75 +598,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/TC Form Generator/studentList.xlsx
+++ b/TC Form Generator/studentList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F74AB1-C9FB-43D9-A60E-1027A0911890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BBD250-EAB7-4C30-9393-8C59E3843D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>s_name</t>
-  </si>
-  <si>
-    <t>f_name</t>
-  </si>
-  <si>
-    <t>m_name</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>session</t>
-  </si>
-  <si>
-    <t>local_address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>sub1</t>
   </si>
@@ -61,27 +40,6 @@
     <t>sub6</t>
   </si>
   <si>
-    <t>sub7</t>
-  </si>
-  <si>
-    <t>sub8</t>
-  </si>
-  <si>
-    <t>admin_no</t>
-  </si>
-  <si>
-    <t>KENDRIYA VIDHYALAYA NO - 1 HARNI ROAD VADODARA</t>
-  </si>
-  <si>
-    <t>bob</t>
-  </si>
-  <si>
-    <t>baba</t>
-  </si>
-  <si>
-    <t>samy</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -106,13 +64,58 @@
     <t>2022-23</t>
   </si>
   <si>
-    <t>abc stark tower, New york</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>cs</t>
+    <t>father_name</t>
+  </si>
+  <si>
+    <t>mother_name</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Date of Application</t>
+  </si>
+  <si>
+    <t>Admission Number</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Father Name</t>
+  </si>
+  <si>
+    <t>Mother Name</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Local Address</t>
+  </si>
+  <si>
+    <t>student_name_01</t>
+  </si>
+  <si>
+    <t>student_name_02</t>
+  </si>
+  <si>
+    <t>father_name_02</t>
+  </si>
+  <si>
+    <t>mother_name_02</t>
+  </si>
+  <si>
+    <t>address_01</t>
+  </si>
+  <si>
+    <t>address_02</t>
   </si>
 </sst>
 </file>
@@ -136,9 +139,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,57 +159,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -226,19 +182,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,8 +220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50C66F14-7CCC-4F74-9B1C-301A2FA8C068}" name="Table1" displayName="Table1" ref="A2:Q80" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:Q80" xr:uid="{1E0D1C9A-8CBB-4D86-8F04-AE6586851A06}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50C66F14-7CCC-4F74-9B1C-301A2FA8C068}" name="Table1" displayName="Table1" ref="A1:Q79" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:Q79" xr:uid="{1E0D1C9A-8CBB-4D86-8F04-AE6586851A06}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -293,22 +240,22 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{D1D4B446-BE07-4A5D-BE3E-E60560EF486C}" name="admin_no"/>
-    <tableColumn id="2" xr3:uid="{DA86C964-FD4F-4CA6-9F77-89191DBA8FF0}" name="s_name"/>
-    <tableColumn id="3" xr3:uid="{2F576F11-A50A-4466-A1A2-2B211FD8A1D0}" name="f_name"/>
-    <tableColumn id="4" xr3:uid="{3AC72DE0-074D-4705-92B0-BA660FB200E6}" name="m_name"/>
-    <tableColumn id="5" xr3:uid="{F3499DD6-87C7-42D2-9BA0-862AB20B1735}" name="class"/>
-    <tableColumn id="6" xr3:uid="{AA15FF11-FC9E-49DF-A980-DCB1A76536DC}" name="section"/>
-    <tableColumn id="7" xr3:uid="{7F7D4D56-D737-4EA3-B841-1D65D9D78683}" name="session"/>
-    <tableColumn id="8" xr3:uid="{21215ABA-04B3-4ABA-B510-F5E6386A0312}" name="local_address"/>
-    <tableColumn id="9" xr3:uid="{63D5A57A-3432-4A32-AAF6-AF8B59A5471A}" name="sub1"/>
-    <tableColumn id="10" xr3:uid="{FEB22E1A-0CDB-4AC1-B6A4-2F31F180177C}" name="sub2"/>
-    <tableColumn id="11" xr3:uid="{9D8733A8-F284-410E-B407-C7FF21067E6A}" name="sub3"/>
-    <tableColumn id="12" xr3:uid="{8BEBD009-99D1-47DE-8B3F-32272C1FCC12}" name="sub4"/>
-    <tableColumn id="13" xr3:uid="{AF611D6C-9632-406E-9522-F2194D347E63}" name="sub5"/>
-    <tableColumn id="14" xr3:uid="{CCB62F01-71B7-46AA-B212-CCE00FA07E26}" name="sub6"/>
-    <tableColumn id="15" xr3:uid="{735AF4E0-728F-4244-AD5F-79E452E51A35}" name="sub7"/>
-    <tableColumn id="16" xr3:uid="{E7FCE5E1-73A3-4FB0-90DD-7033860E2E7E}" name="sub8"/>
+    <tableColumn id="1" xr3:uid="{D1D4B446-BE07-4A5D-BE3E-E60560EF486C}" name="Admission Number"/>
+    <tableColumn id="2" xr3:uid="{DA86C964-FD4F-4CA6-9F77-89191DBA8FF0}" name="Student Name"/>
+    <tableColumn id="3" xr3:uid="{2F576F11-A50A-4466-A1A2-2B211FD8A1D0}" name="Father Name"/>
+    <tableColumn id="4" xr3:uid="{3AC72DE0-074D-4705-92B0-BA660FB200E6}" name="Mother Name"/>
+    <tableColumn id="5" xr3:uid="{F3499DD6-87C7-42D2-9BA0-862AB20B1735}" name="Class"/>
+    <tableColumn id="6" xr3:uid="{AA15FF11-FC9E-49DF-A980-DCB1A76536DC}" name="Section"/>
+    <tableColumn id="7" xr3:uid="{7F7D4D56-D737-4EA3-B841-1D65D9D78683}" name="Session"/>
+    <tableColumn id="8" xr3:uid="{21215ABA-04B3-4ABA-B510-F5E6386A0312}" name="Local Address"/>
+    <tableColumn id="9" xr3:uid="{63D5A57A-3432-4A32-AAF6-AF8B59A5471A}" name="Date of Application"/>
+    <tableColumn id="10" xr3:uid="{FEB22E1A-0CDB-4AC1-B6A4-2F31F180177C}" name="sub1"/>
+    <tableColumn id="11" xr3:uid="{9D8733A8-F284-410E-B407-C7FF21067E6A}" name="sub2"/>
+    <tableColumn id="12" xr3:uid="{8BEBD009-99D1-47DE-8B3F-32272C1FCC12}" name="sub3"/>
+    <tableColumn id="13" xr3:uid="{AF611D6C-9632-406E-9522-F2194D347E63}" name="sub4"/>
+    <tableColumn id="14" xr3:uid="{CCB62F01-71B7-46AA-B212-CCE00FA07E26}" name="sub5"/>
+    <tableColumn id="15" xr3:uid="{735AF4E0-728F-4244-AD5F-79E452E51A35}" name="sub6"/>
+    <tableColumn id="16" xr3:uid="{E7FCE5E1-73A3-4FB0-90DD-7033860E2E7E}" name="Column1"/>
     <tableColumn id="17" xr3:uid="{D49E0F8D-2D34-49EE-8446-D0C3767C9E15}" name="sub9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -578,165 +525,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="65.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="8" max="8" width="65.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
     <col min="10" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>21</v>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>24102022</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>25102022</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
-  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F80" xr:uid="{D0012373-77A8-468E-8364-E4991C9C9A18}">
-      <formula1>$Q$3:$Q$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F79" xr:uid="{D0012373-77A8-468E-8364-E4991C9C9A18}">
+      <formula1>$Q$2:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TC Form Generator/studentList.xlsx
+++ b/TC Form Generator/studentList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BBD250-EAB7-4C30-9393-8C59E3843D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995CBF50-F47B-4062-9BD7-8347335ED059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="238">
   <si>
     <t>sub1</t>
   </si>
@@ -43,36 +43,9 @@
     <t>A</t>
   </si>
   <si>
-    <t>sub9</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>2022-23</t>
   </si>
   <si>
-    <t>father_name</t>
-  </si>
-  <si>
-    <t>mother_name</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Date of Application</t>
   </si>
   <si>
@@ -100,29 +73,675 @@
     <t>Local Address</t>
   </si>
   <si>
-    <t>student_name_01</t>
-  </si>
-  <si>
-    <t>student_name_02</t>
-  </si>
-  <si>
-    <t>father_name_02</t>
-  </si>
-  <si>
-    <t>mother_name_02</t>
-  </si>
-  <si>
-    <t>address_01</t>
-  </si>
-  <si>
-    <t>address_02</t>
+    <t>Priyanka Sharma</t>
+  </si>
+  <si>
+    <t>Aayush Mishra</t>
+  </si>
+  <si>
+    <t>Milind Shandilya</t>
+  </si>
+  <si>
+    <t>Prajaksha Mathkari</t>
+  </si>
+  <si>
+    <t>Drashti Sharma</t>
+  </si>
+  <si>
+    <t>Bansari Gandhi</t>
+  </si>
+  <si>
+    <t>Narvekar Shrikant Yatin</t>
+  </si>
+  <si>
+    <t>Shrushti kale</t>
+  </si>
+  <si>
+    <t>Khushi Rathore</t>
+  </si>
+  <si>
+    <t>Tanuj Beniwal</t>
+  </si>
+  <si>
+    <t>Brahmbhatt Het Nileshkumar</t>
+  </si>
+  <si>
+    <t>Sahil sharma</t>
+  </si>
+  <si>
+    <t>Shreya sharma</t>
+  </si>
+  <si>
+    <t>Dhanraj Shitole</t>
+  </si>
+  <si>
+    <t>Vikramaditya Singh</t>
+  </si>
+  <si>
+    <t>Eklavya Yadav</t>
+  </si>
+  <si>
+    <t>Tushar Raghuwanshi</t>
+  </si>
+  <si>
+    <t>M.Bindhu</t>
+  </si>
+  <si>
+    <t>Khushi Verma</t>
+  </si>
+  <si>
+    <t>Sujal Sharma</t>
+  </si>
+  <si>
+    <t>Krish Sonu Kumar</t>
+  </si>
+  <si>
+    <t>M.Sindhu</t>
+  </si>
+  <si>
+    <t>Parmar Prakruti</t>
+  </si>
+  <si>
+    <t>Aditya Mishra</t>
+  </si>
+  <si>
+    <t>Omkar Mahindrakar</t>
+  </si>
+  <si>
+    <t>PATEL JENILKUMAR PIYUSHBHAI</t>
+  </si>
+  <si>
+    <t>Sakshi Nayak</t>
+  </si>
+  <si>
+    <t>VAGHELA PREET MAHESHBHAI</t>
+  </si>
+  <si>
+    <t>DHYATI DAXESH KUMAR SHAH</t>
+  </si>
+  <si>
+    <t>JANIT KUMAR</t>
+  </si>
+  <si>
+    <t>Vaidehi Jha</t>
+  </si>
+  <si>
+    <t>Sheth Manan Manishkumar</t>
+  </si>
+  <si>
+    <t>VIDHI GIRISH PATEL</t>
+  </si>
+  <si>
+    <t>Jeet Anil Sharma</t>
+  </si>
+  <si>
+    <t>Vidisha. Y. chudasama</t>
+  </si>
+  <si>
+    <t>Tejasvi Kamal kumar Panoli</t>
+  </si>
+  <si>
+    <t>MD Aakif khan</t>
+  </si>
+  <si>
+    <t>Neetigya chheepa</t>
+  </si>
+  <si>
+    <t>MD Asif khan</t>
+  </si>
+  <si>
+    <t>Vidhi Jha</t>
+  </si>
+  <si>
+    <t>Janmesh William Mehta</t>
+  </si>
+  <si>
+    <t>Twisha SunilKumar Solanki</t>
+  </si>
+  <si>
+    <t>SINGH VIKAS VINAY</t>
+  </si>
+  <si>
+    <t>PATEL ZEEL UMANGBHAI</t>
+  </si>
+  <si>
+    <t>Shivam Kumar Nishad</t>
+  </si>
+  <si>
+    <t>VAIBHAV YADAV</t>
+  </si>
+  <si>
+    <t>THAKOR DIRGH</t>
+  </si>
+  <si>
+    <t>jaydeep parmar</t>
+  </si>
+  <si>
+    <t>Nishant Jagdishchandra Aahir</t>
+  </si>
+  <si>
+    <t>SARAYA MOHIT HARESH</t>
+  </si>
+  <si>
+    <t>Khushi Sunil Hedaoo</t>
+  </si>
+  <si>
+    <t>Manvi Sinha</t>
+  </si>
+  <si>
+    <t>Ayush panwar</t>
+  </si>
+  <si>
+    <t>Yash Kumar rathva</t>
+  </si>
+  <si>
+    <t>Priyanshu Singh</t>
+  </si>
+  <si>
+    <t>Sneha Singh</t>
+  </si>
+  <si>
+    <t>Kruti Bhatt</t>
+  </si>
+  <si>
+    <t>Vijay Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Vimal Kumar Mishra</t>
+  </si>
+  <si>
+    <t>L Thakur</t>
+  </si>
+  <si>
+    <t>Praveen Mathkari</t>
+  </si>
+  <si>
+    <t>Naveen Kumar</t>
+  </si>
+  <si>
+    <t>Nimesh Gandhi</t>
+  </si>
+  <si>
+    <t>Yatin Narvekar</t>
+  </si>
+  <si>
+    <t>Hiteshkumar kale</t>
+  </si>
+  <si>
+    <t>Anuj Singh Rathore</t>
+  </si>
+  <si>
+    <t>Suresh Kumar</t>
+  </si>
+  <si>
+    <t>Nileshkumar Chandubhai</t>
+  </si>
+  <si>
+    <t>Dinesh Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Jitesh sharma</t>
+  </si>
+  <si>
+    <t>Milind Shitole</t>
+  </si>
+  <si>
+    <t>Anand Narayan Singh</t>
+  </si>
+  <si>
+    <t>Sanjeev Yadav</t>
+  </si>
+  <si>
+    <t>Santosh Kumar Raghuwanshi</t>
+  </si>
+  <si>
+    <t>Mallikarjuna.M</t>
+  </si>
+  <si>
+    <t>Vijay Kumar Verma</t>
+  </si>
+  <si>
+    <t>jagatjeet Sharma</t>
+  </si>
+  <si>
+    <t>sonu kuril</t>
+  </si>
+  <si>
+    <t>Mallikarjuna .M</t>
+  </si>
+  <si>
+    <t>Piyushendrasinh Parmar</t>
+  </si>
+  <si>
+    <t>Tamal kumar Mishra</t>
+  </si>
+  <si>
+    <t>Anil N Mahindrakar</t>
+  </si>
+  <si>
+    <t>PATEL PIYUSHBHAI NAGINBHAI</t>
+  </si>
+  <si>
+    <t>Bhavesh Kumar Nayak</t>
+  </si>
+  <si>
+    <t>MAHESHBHAI.H.VAGHELA</t>
+  </si>
+  <si>
+    <t>DAXESH KUMAR GOPAL BHAI SHAH</t>
+  </si>
+  <si>
+    <t>SUMER SINGH</t>
+  </si>
+  <si>
+    <t>Chandrakant jha</t>
+  </si>
+  <si>
+    <t>Sheth Manishkumar Arvindlal</t>
+  </si>
+  <si>
+    <t>GIRISH JAMANADAS PATEL</t>
+  </si>
+  <si>
+    <t>Anil Sharma</t>
+  </si>
+  <si>
+    <t>Yogendrasinh Chudasama</t>
+  </si>
+  <si>
+    <t>Kamal kumar kunvar Panoli</t>
+  </si>
+  <si>
+    <t>MD parvej khan</t>
+  </si>
+  <si>
+    <t>Pawan kumar chheepa</t>
+  </si>
+  <si>
+    <t>Md parvej khan</t>
+  </si>
+  <si>
+    <t>Chandrakant Jha</t>
+  </si>
+  <si>
+    <t>William Motilal Mehta</t>
+  </si>
+  <si>
+    <t>Sunilkumar Solanki</t>
+  </si>
+  <si>
+    <t>SINGH VINAY</t>
+  </si>
+  <si>
+    <t>UMANG PATEL</t>
+  </si>
+  <si>
+    <t>Indrajeet Kumar Nishad</t>
+  </si>
+  <si>
+    <t>AVDESH KUMAR YADAV</t>
+  </si>
+  <si>
+    <t>THAKOR RASHMIN</t>
+  </si>
+  <si>
+    <t>dinesh parmar</t>
+  </si>
+  <si>
+    <t>Jagdishchandra Ratnabhai Aahir</t>
+  </si>
+  <si>
+    <t>SARAYA HARESH MULCHAND</t>
+  </si>
+  <si>
+    <t>Sunil Hiralal Hedaoo</t>
+  </si>
+  <si>
+    <t>Mithilesh Kumar Sinha</t>
+  </si>
+  <si>
+    <t>Karan singh</t>
+  </si>
+  <si>
+    <t>Ramesh Rathva</t>
+  </si>
+  <si>
+    <t>Anil Kumar Singh</t>
+  </si>
+  <si>
+    <t>Vimal Kumar Singh</t>
+  </si>
+  <si>
+    <t>Saroj Sharma</t>
+  </si>
+  <si>
+    <t>Saroj Mishra</t>
+  </si>
+  <si>
+    <t>Seema Thakur</t>
+  </si>
+  <si>
+    <t>Sunita Sharma</t>
+  </si>
+  <si>
+    <t>Bela Gandhi</t>
+  </si>
+  <si>
+    <t>Seema</t>
+  </si>
+  <si>
+    <t>Apeksha kale</t>
+  </si>
+  <si>
+    <t>Preeti Rathore</t>
+  </si>
+  <si>
+    <t>Bimala</t>
+  </si>
+  <si>
+    <t>Arpita Nileshkumar</t>
+  </si>
+  <si>
+    <t>Pushpa Sharma</t>
+  </si>
+  <si>
+    <t>Neetu sharma</t>
+  </si>
+  <si>
+    <t>Nisha Shitole</t>
+  </si>
+  <si>
+    <t>Nalini Singh</t>
+  </si>
+  <si>
+    <t>Poonam Yadav</t>
+  </si>
+  <si>
+    <t>Heera Bai Raghuwanshi</t>
+  </si>
+  <si>
+    <t>Amaravathy H.S</t>
+  </si>
+  <si>
+    <t>Jyoti Verma</t>
+  </si>
+  <si>
+    <t>Sudha Sharma</t>
+  </si>
+  <si>
+    <t>Archana kuril</t>
+  </si>
+  <si>
+    <t>Parul Parmar</t>
+  </si>
+  <si>
+    <t>Baby Mishra</t>
+  </si>
+  <si>
+    <t>Lata A Mahindrakar</t>
+  </si>
+  <si>
+    <t>PATEL NIMISHABEN PIYUSHBHAI</t>
+  </si>
+  <si>
+    <t>Nimisha Nayak</t>
+  </si>
+  <si>
+    <t>KARUNA.M.VAGHELA</t>
+  </si>
+  <si>
+    <t>SULAKSHANA DAXESH KUMAR SHAH</t>
+  </si>
+  <si>
+    <t>ANITA DEVI</t>
+  </si>
+  <si>
+    <t>Krishna jha</t>
+  </si>
+  <si>
+    <t>Sheth Shruti Manish</t>
+  </si>
+  <si>
+    <t>ILA GIRISH PATEL</t>
+  </si>
+  <si>
+    <t>Sangita Sharma</t>
+  </si>
+  <si>
+    <t>Alpa Chudasama</t>
+  </si>
+  <si>
+    <t>Gnaneshwari kamal kumar Panoli</t>
+  </si>
+  <si>
+    <t>Hussanara begam</t>
+  </si>
+  <si>
+    <t>Khushaboo</t>
+  </si>
+  <si>
+    <t>Krishna Jha</t>
+  </si>
+  <si>
+    <t>Aarti William Mehta</t>
+  </si>
+  <si>
+    <t>Ranjan solanki</t>
+  </si>
+  <si>
+    <t>SINGH MANISHA</t>
+  </si>
+  <si>
+    <t>TEJASVIKA PATEL</t>
+  </si>
+  <si>
+    <t>Baby Nishad</t>
+  </si>
+  <si>
+    <t>REELA YADAV</t>
+  </si>
+  <si>
+    <t>THAKOR BHAVIKA BEN</t>
+  </si>
+  <si>
+    <t>geeta parmar</t>
+  </si>
+  <si>
+    <t>Rekhaben Jagdishchandra Aahir</t>
+  </si>
+  <si>
+    <t>SARAYA HANSA HARESH</t>
+  </si>
+  <si>
+    <t>Varsha Sunil Hedaoo</t>
+  </si>
+  <si>
+    <t>Anuradha Sinha</t>
+  </si>
+  <si>
+    <t>sunil panwar</t>
+  </si>
+  <si>
+    <t>Sumitraben Rathva</t>
+  </si>
+  <si>
+    <t>Rashmi singh</t>
+  </si>
+  <si>
+    <t>Puspa Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiksha Mathkari </t>
+  </si>
+  <si>
+    <t>D-108 Badrikedar apartment near deepika garden water tank road Karelibaug ,Vadodara Gujarat 390022</t>
+  </si>
+  <si>
+    <t>C-302, Orchid Platina, opp Rama Shikhar, next to merry Land party plot,Vemali, Vadodara, Gujarat,390024</t>
+  </si>
+  <si>
+    <t>A-103, Dream Garden, OPP APMC Market, Sayajipura, Vadodara, Gujarat, 390019</t>
+  </si>
+  <si>
+    <t>C-602 Upvan villa near sayaji township ,new vip road , vadodara ,Gujarat, 390019</t>
+  </si>
+  <si>
+    <t>D-201 Darshnam Highview near sayajipura water tank Vadodara Gujarat 390019</t>
+  </si>
+  <si>
+    <t>103-Chandargupt App. Shyamal Residency Ajwa Waghodia ring road, Vadodara- 390019</t>
+  </si>
+  <si>
+    <t>B-21, Virnagar Society-1, Opp. SBI, VIP Road, Karelibaug, Vadodara - 390018</t>
+  </si>
+  <si>
+    <t>B/34 Kalyan nagar soc near Aman soc ajwa road vadodara</t>
+  </si>
+  <si>
+    <t>302/6 Bansi Residency Behind Labh Residency, Atladara, Vadodara - 390012</t>
+  </si>
+  <si>
+    <t>A-501,Sundaram Villa ,Opp Water Tank ,Sayajipura ,Vadodara ,Gujarat - 390019</t>
+  </si>
+  <si>
+    <t>145 , Vaikunth-2 , New VIP Rd , Vadodara</t>
+  </si>
+  <si>
+    <t>A-301,madhuram flats, karadiya Road, gorwa, baroda</t>
+  </si>
+  <si>
+    <t>B-77 Jaiyogeshwar township part-1 Ajwa road Vadodara.</t>
+  </si>
+  <si>
+    <t>B-48,Siddivinayak Park, behind Ram vatika Society , Waghodia Road, Baroda</t>
+  </si>
+  <si>
+    <t>B-306 Krishna Vatika, Opp Shreeji Villa Sayajipura, New VIP Road Vadodara,390019</t>
+  </si>
+  <si>
+    <t>Gf-2 Sankalp Residence near Volga Appartment New Sama road, Vadodara - 390008</t>
+  </si>
+  <si>
+    <t>Q no.1/104 Gujarat Refinery Township, Jawahar Nagar, Vadodara, Gujarat- 391320</t>
+  </si>
+  <si>
+    <t>Qtr no. 176,Sector 10 Gujrat Refinery township, Jawahar Nagar, Vadodara , Gujrat ,pincode-391320</t>
+  </si>
+  <si>
+    <t>B 152 Dream Heaven Ajwa road near sigma institute Vadodara, Gujarat, pincode-390019</t>
+  </si>
+  <si>
+    <t>B-27 Shantanu SoC. B/H MANGALAYA HALL HARNI ROAD VADODARA 390022</t>
+  </si>
+  <si>
+    <t>36 - Rajwadi new v.i.p road opposite vaikunth-2 near vrajdham complex</t>
+  </si>
+  <si>
+    <t>Qtr no.176,sector 10,Gujrat Refinery Township,Jawahar Nagar,Pincode-391320,VADODARA,Gujarat</t>
+  </si>
+  <si>
+    <t>08- shreenathji varnan behind GPS new waghodia road Vadodara</t>
+  </si>
+  <si>
+    <t>64 Sai nath nagar/govind nagar behind motibhai park new vip road vadodara, pincode=390019</t>
+  </si>
+  <si>
+    <t>A-202, Darshanam Elite, Sun Pharma Road, Atladara, Vadodara, Gujarat, 390012</t>
+  </si>
+  <si>
+    <t>A/8 krishna vatika society,reva park ground near,waghodiya road,vadodara 390025</t>
+  </si>
+  <si>
+    <t>16/B shrinathji park society kadam nagar Nizampura vadodara Gujarat 387340</t>
+  </si>
+  <si>
+    <t>C-5 Natasha park residency-2 near maruti township nizampura vadodara gujarat</t>
+  </si>
+  <si>
+    <t>E-2/15 Tilak park society sangam char rasta harni road vadodara Gujarat 390022</t>
+  </si>
+  <si>
+    <t>A-63 ABHEY ANAND SOCIETY , NEAR AIRPORT, HARNI ROAD- VADODARA</t>
+  </si>
+  <si>
+    <t>B-43 pushpkunj society, karelibaug, vadodara</t>
+  </si>
+  <si>
+    <t>11,Divyalok Society, Nr Saikrupa Society, Anand nagar char rasta, Karelibaug, Vadodra</t>
+  </si>
+  <si>
+    <t>14 SAYAJI SOCIETY NEAR MUKTANAND BUS STAND KARELIBAUG VADODARA</t>
+  </si>
+  <si>
+    <t>43/B Udhyog Nagar Society, Near Ayurvedic College, Ajwa road. Vadodara</t>
+  </si>
+  <si>
+    <t>14 jay bharat colony , diwalipura , old padra road , vadodara</t>
+  </si>
+  <si>
+    <t>2274,Maruthidham soc, near sanskar Nagar gotri road Vadodara</t>
+  </si>
+  <si>
+    <t>Gujarat refinery township 11/125 vadodara Gujarat</t>
+  </si>
+  <si>
+    <t>104,A-tower Rajeshwar Gold,Harni Vadodara Gujarat</t>
+  </si>
+  <si>
+    <t>123, Manharpark soc. Behind yogeshwar park soc. , opposite novino batteries, Tarsali Makarpura road 
+vadodara 390010</t>
+  </si>
+  <si>
+    <t>8 gayatri krupa society b/h sukhmani society near old RTO warasiya</t>
+  </si>
+  <si>
+    <t>102,shukan height sama savali road ,near mc Donald vadodara</t>
+  </si>
+  <si>
+    <t>A-1 ,ARVIND PARK SOCIETY,OPP SHIV VATIKA PARTY PLOT ,HARNI WARASIA RING ROAD</t>
+  </si>
+  <si>
+    <t>B-136 Gold City Near Dhanyavi Chokdi Tarasali Vadodara</t>
+  </si>
+  <si>
+    <t>A/4 , 327 SHIVAM HOMES , VAIKUNTH 2 . NEW VIP ROAD VADODARA</t>
+  </si>
+  <si>
+    <t>11, valamgreen society near waghodiya chokadi behind Himalayas party plot vadodara gujarat</t>
+  </si>
+  <si>
+    <t>175 shree krushan moholla ,kisanwadi ajwa road vadodara</t>
+  </si>
+  <si>
+    <t>Nr. Gajanand saw mill shahera bhagol,godhra</t>
+  </si>
+  <si>
+    <t>A-23, SHREE RANGAM VINTAGE B/H SAYAGI TOWNSHIP, VADODARA</t>
+  </si>
+  <si>
+    <t>Sundar baug towers,T-3,B1,Opp's:- Hazira, pratapnagar bridge</t>
+  </si>
+  <si>
+    <t>SMQ125/2 AFS DARJIPURA (VADODRA)</t>
+  </si>
+  <si>
+    <t>A-1/22, Yogiraj township Gurukul circle,kendranagar</t>
+  </si>
+  <si>
+    <t>SMQ-120/06 AFS DARJIPURA (BARODA)</t>
+  </si>
+  <si>
+    <t>C-304 Darshnam Highview, Sayajipura Road Vadodara</t>
+  </si>
+  <si>
+    <t>SMQ 232/4 Air Force Station Darjipura Vadodara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +763,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -159,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,19 +810,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -220,8 +917,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50C66F14-7CCC-4F74-9B1C-301A2FA8C068}" name="Table1" displayName="Table1" ref="A1:Q79" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:Q79" xr:uid="{1E0D1C9A-8CBB-4D86-8F04-AE6586851A06}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50C66F14-7CCC-4F74-9B1C-301A2FA8C068}" name="Table1" displayName="Table1" ref="A1:O79" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:O79" xr:uid="{1E0D1C9A-8CBB-4D86-8F04-AE6586851A06}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -237,14 +934,13 @@
     <filterColumn colId="12" hiddenButton="1"/>
     <filterColumn colId="13" hiddenButton="1"/>
     <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="17">
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{D1D4B446-BE07-4A5D-BE3E-E60560EF486C}" name="Admission Number"/>
     <tableColumn id="2" xr3:uid="{DA86C964-FD4F-4CA6-9F77-89191DBA8FF0}" name="Student Name"/>
     <tableColumn id="3" xr3:uid="{2F576F11-A50A-4466-A1A2-2B211FD8A1D0}" name="Father Name"/>
     <tableColumn id="4" xr3:uid="{3AC72DE0-074D-4705-92B0-BA660FB200E6}" name="Mother Name"/>
-    <tableColumn id="5" xr3:uid="{F3499DD6-87C7-42D2-9BA0-862AB20B1735}" name="Class"/>
+    <tableColumn id="5" xr3:uid="{F3499DD6-87C7-42D2-9BA0-862AB20B1735}" name="Class" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{AA15FF11-FC9E-49DF-A980-DCB1A76536DC}" name="Section"/>
     <tableColumn id="7" xr3:uid="{7F7D4D56-D737-4EA3-B841-1D65D9D78683}" name="Session"/>
     <tableColumn id="8" xr3:uid="{21215ABA-04B3-4ABA-B510-F5E6386A0312}" name="Local Address"/>
@@ -255,8 +951,6 @@
     <tableColumn id="13" xr3:uid="{AF611D6C-9632-406E-9522-F2194D347E63}" name="sub4"/>
     <tableColumn id="14" xr3:uid="{CCB62F01-71B7-46AA-B212-CCE00FA07E26}" name="sub5"/>
     <tableColumn id="15" xr3:uid="{735AF4E0-728F-4244-AD5F-79E452E51A35}" name="sub6"/>
-    <tableColumn id="16" xr3:uid="{E7FCE5E1-73A3-4FB0-90DD-7033860E2E7E}" name="Column1"/>
-    <tableColumn id="17" xr3:uid="{D49E0F8D-2D34-49EE-8446-D0C3767C9E15}" name="sub9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,52 +1219,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
-    <col min="10" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="8" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="65.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -590,102 +1284,1638 @@
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1234</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="6">
         <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="I2">
         <v>24102022</v>
       </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1235</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="6">
         <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="I3">
         <v>25102022</v>
       </c>
-      <c r="Q3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q7" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="4" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="6">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="6">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="6">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="6">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1244</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="6">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="6">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1249</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="6">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="6">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1252</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="6">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1253</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="6">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1254</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="6">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="6">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="6">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1257</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="6">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1258</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="6">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1259</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="6">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="6">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1261</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="6">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1262</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="6">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="6">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="6">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1265</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="6">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="6">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1267</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="6">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1268</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="6">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1269</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="6">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="6">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1271</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="6">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1272</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="6">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1273</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="6">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1274</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="6">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1275</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="6">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1276</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="6">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="6">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1278</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="6">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1279</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="6">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1280</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="6">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1281</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="6">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1282</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="6">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1283</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="6">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1284</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="6">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1285</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="6">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1286</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="6">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1287</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="6">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1288</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="6">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1289</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" s="6">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1290</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="6">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1291</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="6">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1292</v>
+      </c>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1293</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1294</v>
+      </c>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1295</v>
+      </c>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1296</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1297</v>
+      </c>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1298</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1299</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1300</v>
+      </c>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1301</v>
+      </c>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1302</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1303</v>
+      </c>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1304</v>
+      </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1305</v>
+      </c>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1306</v>
+      </c>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1307</v>
+      </c>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1308</v>
+      </c>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1309</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1310</v>
+      </c>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1311</v>
+      </c>
+      <c r="E79" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F79" xr:uid="{D0012373-77A8-468E-8364-E4991C9C9A18}">
-      <formula1>$Q$2:$Q$7</formula1>
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TC Form Generator/studentList.xlsx
+++ b/TC Form Generator/studentList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995CBF50-F47B-4062-9BD7-8347335ED059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E0327-33CF-4138-BBAC-488B4F765844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="244">
   <si>
     <t>sub1</t>
   </si>
@@ -735,6 +735,24 @@
   </si>
   <si>
     <t>SMQ 232/4 Air Force Station Darjipura Vadodara</t>
+  </si>
+  <si>
+    <t>phy</t>
+  </si>
+  <si>
+    <t>chem</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>hindi</t>
+  </si>
+  <si>
+    <t>bio</t>
   </si>
 </sst>
 </file>
@@ -859,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -874,11 +892,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,8 +1247,7 @@
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="8" customWidth="1"/>
-    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="5" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="65.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="15" width="12" customWidth="1"/>
@@ -1251,7 +1266,7 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1313,6 +1328,24 @@
       <c r="I2">
         <v>24102022</v>
       </c>
+      <c r="J2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1342,6 +1375,24 @@
       <c r="I3">
         <v>25102022</v>
       </c>
+      <c r="J3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" t="s">
+        <v>242</v>
+      </c>
+      <c r="O3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1368,6 +1419,24 @@
       <c r="H4" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="J4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" t="s">
+        <v>241</v>
+      </c>
+      <c r="N4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1394,6 +1463,24 @@
       <c r="H5" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="J5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" t="s">
+        <v>241</v>
+      </c>
+      <c r="N5" t="s">
+        <v>242</v>
+      </c>
+      <c r="O5" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1420,6 +1507,24 @@
       <c r="H6" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="J6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" t="s">
+        <v>239</v>
+      </c>
+      <c r="L6" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N6" t="s">
+        <v>242</v>
+      </c>
+      <c r="O6" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1446,6 +1551,24 @@
       <c r="H7" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="J7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M7" t="s">
+        <v>241</v>
+      </c>
+      <c r="N7" t="s">
+        <v>242</v>
+      </c>
+      <c r="O7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1472,6 +1595,24 @@
       <c r="H8" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="J8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O8" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1498,6 +1639,24 @@
       <c r="H9" s="3" t="s">
         <v>191</v>
       </c>
+      <c r="J9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" t="s">
+        <v>240</v>
+      </c>
+      <c r="M9" t="s">
+        <v>241</v>
+      </c>
+      <c r="N9" t="s">
+        <v>242</v>
+      </c>
+      <c r="O9" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1524,6 +1683,24 @@
       <c r="H10" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="J10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" t="s">
+        <v>241</v>
+      </c>
+      <c r="N10" t="s">
+        <v>242</v>
+      </c>
+      <c r="O10" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1550,6 +1727,24 @@
       <c r="H11" s="3" t="s">
         <v>193</v>
       </c>
+      <c r="J11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" t="s">
+        <v>240</v>
+      </c>
+      <c r="M11" t="s">
+        <v>241</v>
+      </c>
+      <c r="N11" t="s">
+        <v>242</v>
+      </c>
+      <c r="O11" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1576,6 +1771,24 @@
       <c r="H12" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="J12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L12" t="s">
+        <v>240</v>
+      </c>
+      <c r="M12" t="s">
+        <v>241</v>
+      </c>
+      <c r="N12" t="s">
+        <v>242</v>
+      </c>
+      <c r="O12" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1602,6 +1815,24 @@
       <c r="H13" s="3" t="s">
         <v>195</v>
       </c>
+      <c r="J13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" t="s">
+        <v>239</v>
+      </c>
+      <c r="L13" t="s">
+        <v>240</v>
+      </c>
+      <c r="M13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N13" t="s">
+        <v>242</v>
+      </c>
+      <c r="O13" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1628,6 +1859,24 @@
       <c r="H14" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="J14" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" t="s">
+        <v>239</v>
+      </c>
+      <c r="L14" t="s">
+        <v>240</v>
+      </c>
+      <c r="M14" t="s">
+        <v>241</v>
+      </c>
+      <c r="N14" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1654,6 +1903,24 @@
       <c r="H15" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="J15" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" t="s">
+        <v>239</v>
+      </c>
+      <c r="L15" t="s">
+        <v>240</v>
+      </c>
+      <c r="M15" t="s">
+        <v>241</v>
+      </c>
+      <c r="N15" t="s">
+        <v>242</v>
+      </c>
+      <c r="O15" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1680,8 +1947,26 @@
       <c r="H16" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" t="s">
+        <v>242</v>
+      </c>
+      <c r="O16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1249</v>
       </c>
@@ -1706,8 +1991,26 @@
       <c r="H17" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1250</v>
       </c>
@@ -1732,8 +2035,26 @@
       <c r="H18" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" t="s">
+        <v>239</v>
+      </c>
+      <c r="L18" t="s">
+        <v>240</v>
+      </c>
+      <c r="M18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N18" t="s">
+        <v>242</v>
+      </c>
+      <c r="O18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1251</v>
       </c>
@@ -1758,8 +2079,26 @@
       <c r="H19" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" t="s">
+        <v>239</v>
+      </c>
+      <c r="L19" t="s">
+        <v>240</v>
+      </c>
+      <c r="M19" t="s">
+        <v>241</v>
+      </c>
+      <c r="N19" t="s">
+        <v>242</v>
+      </c>
+      <c r="O19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1252</v>
       </c>
@@ -1784,8 +2123,26 @@
       <c r="H20" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" t="s">
+        <v>239</v>
+      </c>
+      <c r="L20" t="s">
+        <v>240</v>
+      </c>
+      <c r="M20" t="s">
+        <v>241</v>
+      </c>
+      <c r="N20" t="s">
+        <v>242</v>
+      </c>
+      <c r="O20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1253</v>
       </c>
@@ -1810,8 +2167,26 @@
       <c r="H21" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K21" t="s">
+        <v>239</v>
+      </c>
+      <c r="L21" t="s">
+        <v>240</v>
+      </c>
+      <c r="M21" t="s">
+        <v>241</v>
+      </c>
+      <c r="N21" t="s">
+        <v>242</v>
+      </c>
+      <c r="O21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1254</v>
       </c>
@@ -1836,8 +2211,26 @@
       <c r="H22" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" t="s">
+        <v>240</v>
+      </c>
+      <c r="M22" t="s">
+        <v>241</v>
+      </c>
+      <c r="N22" t="s">
+        <v>242</v>
+      </c>
+      <c r="O22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1255</v>
       </c>
@@ -1862,8 +2255,26 @@
       <c r="H23" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" t="s">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s">
+        <v>241</v>
+      </c>
+      <c r="N23" t="s">
+        <v>242</v>
+      </c>
+      <c r="O23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1256</v>
       </c>
@@ -1888,8 +2299,26 @@
       <c r="H24" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" t="s">
+        <v>241</v>
+      </c>
+      <c r="N24" t="s">
+        <v>242</v>
+      </c>
+      <c r="O24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1257</v>
       </c>
@@ -1914,8 +2343,26 @@
       <c r="H25" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="s">
+        <v>241</v>
+      </c>
+      <c r="N25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1258</v>
       </c>
@@ -1940,8 +2387,26 @@
       <c r="H26" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="s">
+        <v>241</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1259</v>
       </c>
@@ -1966,8 +2431,26 @@
       <c r="H27" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="s">
+        <v>241</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1260</v>
       </c>
@@ -1992,8 +2475,26 @@
       <c r="H28" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="s">
+        <v>241</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1261</v>
       </c>
@@ -2018,8 +2519,26 @@
       <c r="H29" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="s">
+        <v>241</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1262</v>
       </c>
@@ -2044,8 +2563,26 @@
       <c r="H30" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" t="s">
+        <v>241</v>
+      </c>
+      <c r="N30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1263</v>
       </c>
@@ -2070,8 +2607,26 @@
       <c r="H31" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="s">
+        <v>241</v>
+      </c>
+      <c r="N31" t="s">
+        <v>242</v>
+      </c>
+      <c r="O31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1264</v>
       </c>
@@ -2096,8 +2651,26 @@
       <c r="H32" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" t="s">
+        <v>241</v>
+      </c>
+      <c r="N32" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1265</v>
       </c>
@@ -2122,8 +2695,26 @@
       <c r="H33" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" t="s">
+        <v>241</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1266</v>
       </c>
@@ -2148,8 +2739,26 @@
       <c r="H34" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" t="s">
+        <v>240</v>
+      </c>
+      <c r="M34" t="s">
+        <v>241</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1267</v>
       </c>
@@ -2174,8 +2783,26 @@
       <c r="H35" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" t="s">
+        <v>239</v>
+      </c>
+      <c r="L35" t="s">
+        <v>240</v>
+      </c>
+      <c r="M35" t="s">
+        <v>241</v>
+      </c>
+      <c r="N35" t="s">
+        <v>242</v>
+      </c>
+      <c r="O35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1268</v>
       </c>
@@ -2200,8 +2827,26 @@
       <c r="H36" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" t="s">
+        <v>239</v>
+      </c>
+      <c r="L36" t="s">
+        <v>240</v>
+      </c>
+      <c r="M36" t="s">
+        <v>241</v>
+      </c>
+      <c r="N36" t="s">
+        <v>242</v>
+      </c>
+      <c r="O36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1269</v>
       </c>
@@ -2226,8 +2871,26 @@
       <c r="H37" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" t="s">
+        <v>239</v>
+      </c>
+      <c r="L37" t="s">
+        <v>240</v>
+      </c>
+      <c r="M37" t="s">
+        <v>241</v>
+      </c>
+      <c r="N37" t="s">
+        <v>242</v>
+      </c>
+      <c r="O37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1270</v>
       </c>
@@ -2252,8 +2915,26 @@
       <c r="H38" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" t="s">
+        <v>239</v>
+      </c>
+      <c r="L38" t="s">
+        <v>240</v>
+      </c>
+      <c r="M38" t="s">
+        <v>241</v>
+      </c>
+      <c r="N38" t="s">
+        <v>242</v>
+      </c>
+      <c r="O38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1271</v>
       </c>
@@ -2278,8 +2959,26 @@
       <c r="H39" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" t="s">
+        <v>239</v>
+      </c>
+      <c r="L39" t="s">
+        <v>240</v>
+      </c>
+      <c r="M39" t="s">
+        <v>241</v>
+      </c>
+      <c r="N39" t="s">
+        <v>242</v>
+      </c>
+      <c r="O39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1272</v>
       </c>
@@ -2304,8 +3003,26 @@
       <c r="H40" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" t="s">
+        <v>239</v>
+      </c>
+      <c r="L40" t="s">
+        <v>240</v>
+      </c>
+      <c r="M40" t="s">
+        <v>241</v>
+      </c>
+      <c r="N40" t="s">
+        <v>242</v>
+      </c>
+      <c r="O40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1273</v>
       </c>
@@ -2330,8 +3047,26 @@
       <c r="H41" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" t="s">
+        <v>239</v>
+      </c>
+      <c r="L41" t="s">
+        <v>240</v>
+      </c>
+      <c r="M41" t="s">
+        <v>241</v>
+      </c>
+      <c r="N41" t="s">
+        <v>242</v>
+      </c>
+      <c r="O41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1274</v>
       </c>
@@ -2356,8 +3091,26 @@
       <c r="H42" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" t="s">
+        <v>239</v>
+      </c>
+      <c r="L42" t="s">
+        <v>240</v>
+      </c>
+      <c r="M42" t="s">
+        <v>241</v>
+      </c>
+      <c r="N42" t="s">
+        <v>242</v>
+      </c>
+      <c r="O42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1275</v>
       </c>
@@ -2382,8 +3135,26 @@
       <c r="H43" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>238</v>
+      </c>
+      <c r="K43" t="s">
+        <v>239</v>
+      </c>
+      <c r="L43" t="s">
+        <v>240</v>
+      </c>
+      <c r="M43" t="s">
+        <v>241</v>
+      </c>
+      <c r="N43" t="s">
+        <v>242</v>
+      </c>
+      <c r="O43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1276</v>
       </c>
@@ -2408,8 +3179,26 @@
       <c r="H44" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>238</v>
+      </c>
+      <c r="K44" t="s">
+        <v>239</v>
+      </c>
+      <c r="L44" t="s">
+        <v>240</v>
+      </c>
+      <c r="M44" t="s">
+        <v>241</v>
+      </c>
+      <c r="N44" t="s">
+        <v>242</v>
+      </c>
+      <c r="O44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1277</v>
       </c>
@@ -2434,8 +3223,26 @@
       <c r="H45" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>238</v>
+      </c>
+      <c r="K45" t="s">
+        <v>239</v>
+      </c>
+      <c r="L45" t="s">
+        <v>240</v>
+      </c>
+      <c r="M45" t="s">
+        <v>241</v>
+      </c>
+      <c r="N45" t="s">
+        <v>242</v>
+      </c>
+      <c r="O45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1278</v>
       </c>
@@ -2460,8 +3267,26 @@
       <c r="H46" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>238</v>
+      </c>
+      <c r="K46" t="s">
+        <v>239</v>
+      </c>
+      <c r="L46" t="s">
+        <v>240</v>
+      </c>
+      <c r="M46" t="s">
+        <v>241</v>
+      </c>
+      <c r="N46" t="s">
+        <v>242</v>
+      </c>
+      <c r="O46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1279</v>
       </c>
@@ -2486,8 +3311,26 @@
       <c r="H47" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>238</v>
+      </c>
+      <c r="K47" t="s">
+        <v>239</v>
+      </c>
+      <c r="L47" t="s">
+        <v>240</v>
+      </c>
+      <c r="M47" t="s">
+        <v>241</v>
+      </c>
+      <c r="N47" t="s">
+        <v>242</v>
+      </c>
+      <c r="O47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1280</v>
       </c>
@@ -2512,8 +3355,26 @@
       <c r="H48" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>238</v>
+      </c>
+      <c r="K48" t="s">
+        <v>239</v>
+      </c>
+      <c r="L48" t="s">
+        <v>240</v>
+      </c>
+      <c r="M48" t="s">
+        <v>241</v>
+      </c>
+      <c r="N48" t="s">
+        <v>242</v>
+      </c>
+      <c r="O48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1281</v>
       </c>
@@ -2538,8 +3399,26 @@
       <c r="H49" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>238</v>
+      </c>
+      <c r="K49" t="s">
+        <v>239</v>
+      </c>
+      <c r="L49" t="s">
+        <v>240</v>
+      </c>
+      <c r="M49" t="s">
+        <v>241</v>
+      </c>
+      <c r="N49" t="s">
+        <v>242</v>
+      </c>
+      <c r="O49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1282</v>
       </c>
@@ -2564,8 +3443,26 @@
       <c r="H50" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>238</v>
+      </c>
+      <c r="K50" t="s">
+        <v>239</v>
+      </c>
+      <c r="L50" t="s">
+        <v>240</v>
+      </c>
+      <c r="M50" t="s">
+        <v>241</v>
+      </c>
+      <c r="N50" t="s">
+        <v>242</v>
+      </c>
+      <c r="O50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1283</v>
       </c>
@@ -2590,8 +3487,26 @@
       <c r="H51" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>238</v>
+      </c>
+      <c r="K51" t="s">
+        <v>239</v>
+      </c>
+      <c r="L51" t="s">
+        <v>240</v>
+      </c>
+      <c r="M51" t="s">
+        <v>241</v>
+      </c>
+      <c r="N51" t="s">
+        <v>242</v>
+      </c>
+      <c r="O51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1284</v>
       </c>
@@ -2616,8 +3531,26 @@
       <c r="H52" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>238</v>
+      </c>
+      <c r="K52" t="s">
+        <v>239</v>
+      </c>
+      <c r="L52" t="s">
+        <v>240</v>
+      </c>
+      <c r="M52" t="s">
+        <v>241</v>
+      </c>
+      <c r="N52" t="s">
+        <v>242</v>
+      </c>
+      <c r="O52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1285</v>
       </c>
@@ -2640,8 +3573,26 @@
         <v>7</v>
       </c>
       <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>238</v>
+      </c>
+      <c r="K53" t="s">
+        <v>239</v>
+      </c>
+      <c r="L53" t="s">
+        <v>240</v>
+      </c>
+      <c r="M53" t="s">
+        <v>241</v>
+      </c>
+      <c r="N53" t="s">
+        <v>242</v>
+      </c>
+      <c r="O53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1286</v>
       </c>
@@ -2666,8 +3617,26 @@
       <c r="H54" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>238</v>
+      </c>
+      <c r="K54" t="s">
+        <v>239</v>
+      </c>
+      <c r="L54" t="s">
+        <v>240</v>
+      </c>
+      <c r="M54" t="s">
+        <v>241</v>
+      </c>
+      <c r="N54" t="s">
+        <v>242</v>
+      </c>
+      <c r="O54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1287</v>
       </c>
@@ -2692,8 +3661,26 @@
       <c r="H55" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>238</v>
+      </c>
+      <c r="K55" t="s">
+        <v>239</v>
+      </c>
+      <c r="L55" t="s">
+        <v>240</v>
+      </c>
+      <c r="M55" t="s">
+        <v>241</v>
+      </c>
+      <c r="N55" t="s">
+        <v>242</v>
+      </c>
+      <c r="O55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1288</v>
       </c>
@@ -2718,8 +3705,26 @@
       <c r="H56" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>238</v>
+      </c>
+      <c r="K56" t="s">
+        <v>239</v>
+      </c>
+      <c r="L56" t="s">
+        <v>240</v>
+      </c>
+      <c r="M56" t="s">
+        <v>241</v>
+      </c>
+      <c r="N56" t="s">
+        <v>242</v>
+      </c>
+      <c r="O56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1289</v>
       </c>
@@ -2744,8 +3749,26 @@
       <c r="H57" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>238</v>
+      </c>
+      <c r="K57" t="s">
+        <v>239</v>
+      </c>
+      <c r="L57" t="s">
+        <v>240</v>
+      </c>
+      <c r="M57" t="s">
+        <v>241</v>
+      </c>
+      <c r="N57" t="s">
+        <v>242</v>
+      </c>
+      <c r="O57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1290</v>
       </c>
@@ -2764,8 +3787,26 @@
         <v>7</v>
       </c>
       <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>238</v>
+      </c>
+      <c r="K58" t="s">
+        <v>239</v>
+      </c>
+      <c r="L58" t="s">
+        <v>240</v>
+      </c>
+      <c r="M58" t="s">
+        <v>241</v>
+      </c>
+      <c r="N58" t="s">
+        <v>242</v>
+      </c>
+      <c r="O58" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1291</v>
       </c>
@@ -2790,126 +3831,504 @@
       <c r="H59" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>238</v>
+      </c>
+      <c r="K59" t="s">
+        <v>239</v>
+      </c>
+      <c r="L59" t="s">
+        <v>240</v>
+      </c>
+      <c r="M59" t="s">
+        <v>241</v>
+      </c>
+      <c r="N59" t="s">
+        <v>242</v>
+      </c>
+      <c r="O59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1292</v>
       </c>
       <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>238</v>
+      </c>
+      <c r="K60" t="s">
+        <v>239</v>
+      </c>
+      <c r="L60" t="s">
+        <v>240</v>
+      </c>
+      <c r="M60" t="s">
+        <v>241</v>
+      </c>
+      <c r="N60" t="s">
+        <v>242</v>
+      </c>
+      <c r="O60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1293</v>
       </c>
       <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>238</v>
+      </c>
+      <c r="K61" t="s">
+        <v>239</v>
+      </c>
+      <c r="L61" t="s">
+        <v>240</v>
+      </c>
+      <c r="M61" t="s">
+        <v>241</v>
+      </c>
+      <c r="N61" t="s">
+        <v>242</v>
+      </c>
+      <c r="O61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1294</v>
       </c>
       <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>238</v>
+      </c>
+      <c r="K62" t="s">
+        <v>239</v>
+      </c>
+      <c r="L62" t="s">
+        <v>240</v>
+      </c>
+      <c r="M62" t="s">
+        <v>241</v>
+      </c>
+      <c r="N62" t="s">
+        <v>242</v>
+      </c>
+      <c r="O62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1295</v>
       </c>
       <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>238</v>
+      </c>
+      <c r="K63" t="s">
+        <v>239</v>
+      </c>
+      <c r="L63" t="s">
+        <v>240</v>
+      </c>
+      <c r="M63" t="s">
+        <v>241</v>
+      </c>
+      <c r="N63" t="s">
+        <v>242</v>
+      </c>
+      <c r="O63" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1296</v>
       </c>
       <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>238</v>
+      </c>
+      <c r="K64" t="s">
+        <v>239</v>
+      </c>
+      <c r="L64" t="s">
+        <v>240</v>
+      </c>
+      <c r="M64" t="s">
+        <v>241</v>
+      </c>
+      <c r="N64" t="s">
+        <v>242</v>
+      </c>
+      <c r="O64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1297</v>
       </c>
       <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>238</v>
+      </c>
+      <c r="K65" t="s">
+        <v>239</v>
+      </c>
+      <c r="L65" t="s">
+        <v>240</v>
+      </c>
+      <c r="M65" t="s">
+        <v>241</v>
+      </c>
+      <c r="N65" t="s">
+        <v>242</v>
+      </c>
+      <c r="O65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1298</v>
       </c>
       <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>238</v>
+      </c>
+      <c r="K66" t="s">
+        <v>239</v>
+      </c>
+      <c r="L66" t="s">
+        <v>240</v>
+      </c>
+      <c r="M66" t="s">
+        <v>241</v>
+      </c>
+      <c r="N66" t="s">
+        <v>242</v>
+      </c>
+      <c r="O66" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1299</v>
       </c>
       <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>238</v>
+      </c>
+      <c r="K67" t="s">
+        <v>239</v>
+      </c>
+      <c r="L67" t="s">
+        <v>240</v>
+      </c>
+      <c r="M67" t="s">
+        <v>241</v>
+      </c>
+      <c r="N67" t="s">
+        <v>242</v>
+      </c>
+      <c r="O67" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1300</v>
       </c>
       <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>238</v>
+      </c>
+      <c r="K68" t="s">
+        <v>239</v>
+      </c>
+      <c r="L68" t="s">
+        <v>240</v>
+      </c>
+      <c r="M68" t="s">
+        <v>241</v>
+      </c>
+      <c r="N68" t="s">
+        <v>242</v>
+      </c>
+      <c r="O68" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1301</v>
       </c>
       <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>238</v>
+      </c>
+      <c r="K69" t="s">
+        <v>239</v>
+      </c>
+      <c r="L69" t="s">
+        <v>240</v>
+      </c>
+      <c r="M69" t="s">
+        <v>241</v>
+      </c>
+      <c r="N69" t="s">
+        <v>242</v>
+      </c>
+      <c r="O69" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1302</v>
       </c>
       <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>238</v>
+      </c>
+      <c r="K70" t="s">
+        <v>239</v>
+      </c>
+      <c r="L70" t="s">
+        <v>240</v>
+      </c>
+      <c r="M70" t="s">
+        <v>241</v>
+      </c>
+      <c r="N70" t="s">
+        <v>242</v>
+      </c>
+      <c r="O70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1303</v>
       </c>
       <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>238</v>
+      </c>
+      <c r="K71" t="s">
+        <v>239</v>
+      </c>
+      <c r="L71" t="s">
+        <v>240</v>
+      </c>
+      <c r="M71" t="s">
+        <v>241</v>
+      </c>
+      <c r="N71" t="s">
+        <v>242</v>
+      </c>
+      <c r="O71" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1304</v>
       </c>
       <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>238</v>
+      </c>
+      <c r="K72" t="s">
+        <v>239</v>
+      </c>
+      <c r="L72" t="s">
+        <v>240</v>
+      </c>
+      <c r="M72" t="s">
+        <v>241</v>
+      </c>
+      <c r="N72" t="s">
+        <v>242</v>
+      </c>
+      <c r="O72" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1305</v>
       </c>
       <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>238</v>
+      </c>
+      <c r="K73" t="s">
+        <v>239</v>
+      </c>
+      <c r="L73" t="s">
+        <v>240</v>
+      </c>
+      <c r="M73" t="s">
+        <v>241</v>
+      </c>
+      <c r="N73" t="s">
+        <v>242</v>
+      </c>
+      <c r="O73" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1306</v>
       </c>
       <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>238</v>
+      </c>
+      <c r="K74" t="s">
+        <v>239</v>
+      </c>
+      <c r="L74" t="s">
+        <v>240</v>
+      </c>
+      <c r="M74" t="s">
+        <v>241</v>
+      </c>
+      <c r="N74" t="s">
+        <v>242</v>
+      </c>
+      <c r="O74" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1307</v>
       </c>
       <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>238</v>
+      </c>
+      <c r="K75" t="s">
+        <v>239</v>
+      </c>
+      <c r="L75" t="s">
+        <v>240</v>
+      </c>
+      <c r="M75" t="s">
+        <v>241</v>
+      </c>
+      <c r="N75" t="s">
+        <v>242</v>
+      </c>
+      <c r="O75" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1308</v>
       </c>
       <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>238</v>
+      </c>
+      <c r="K76" t="s">
+        <v>239</v>
+      </c>
+      <c r="L76" t="s">
+        <v>240</v>
+      </c>
+      <c r="M76" t="s">
+        <v>241</v>
+      </c>
+      <c r="N76" t="s">
+        <v>242</v>
+      </c>
+      <c r="O76" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1309</v>
       </c>
       <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>238</v>
+      </c>
+      <c r="K77" t="s">
+        <v>239</v>
+      </c>
+      <c r="L77" t="s">
+        <v>240</v>
+      </c>
+      <c r="M77" t="s">
+        <v>241</v>
+      </c>
+      <c r="N77" t="s">
+        <v>242</v>
+      </c>
+      <c r="O77" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1310</v>
       </c>
       <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>238</v>
+      </c>
+      <c r="K78" t="s">
+        <v>239</v>
+      </c>
+      <c r="L78" t="s">
+        <v>240</v>
+      </c>
+      <c r="M78" t="s">
+        <v>241</v>
+      </c>
+      <c r="N78" t="s">
+        <v>242</v>
+      </c>
+      <c r="O78" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1311</v>
       </c>
       <c r="E79" s="6"/>
+      <c r="J79" t="s">
+        <v>238</v>
+      </c>
+      <c r="K79" t="s">
+        <v>239</v>
+      </c>
+      <c r="L79" t="s">
+        <v>240</v>
+      </c>
+      <c r="M79" t="s">
+        <v>241</v>
+      </c>
+      <c r="N79" t="s">
+        <v>242</v>
+      </c>
+      <c r="O79" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
